--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/My_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0242DC2-9690-4E4A-AEF7-C012E944D834}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCE0199-19B7-4DFD-A086-E9CABD24FE5A}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView minimized="1" xWindow="1995" yWindow="3075" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テンプレート「quicksave 6」を開きます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イメージは「TM3.1_100M_64QAM」</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,13 +138,6 @@
     <t>tvnviewer.exeのパスをシステムに合わせて調整してください。
 vnc_server_ipとvnc_passwordを実際のVNCサーバーのIPアドレス（172.22.0.12）とパスワード（1234）に置き換えてください。
 Cato Client接続コマンド（cato-client connect --profile your-profile-name）は、使用しているCato Clientの設定に合わせて変更してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R&amp;S Signal and spectrum analyzerの中心周波数が28.01712GHzに設定されていることを確認します。</t>
-    <rPh sb="33" eb="38">
-      <t>チュウシンシュウハスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -177,28 +166,6 @@
   </si>
   <si>
     <t>Webブラウザ「172.22.2.31」で R&amp;S SMW200Aを開きます。パスワードは「instrum」です。周波数を「5.16144 GHz」に設定し、RF を「ON」に設定します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RS SGの電力（I/P Power(dBm)）を1dBmごとに変更して、EVMが一回目の10%から2回目の10%に変化するようにします。低電力（たとえば-39dBmでEVMが1回目の10％付近）から高電力（たとえば-11dBmでEVMが2回目の10%付近）まで変化させます。5G NR信号の場合はSAからのEVM(%)、CF(dB)、O/P Power(dBm)、ACLR Lower(dBc)、ACLR Upper(dBc)をI/P Power(dBm)ごとに記録します。信号がCWの場合は、SGとSAの電力I/P Power(dBm)とO/P Power(dBm)のみを記録します。</t>
-    <rPh sb="41" eb="44">
-      <t>イッカイメ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>フキン</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>フキン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2211,6 +2178,124 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R&amp;S Signal and spectrum analyzer(RS_FSx)の中心周波数が28.01712GHzに設定されていることを確認します。中心周波数は将来的に選択できるようにしておいた方がいいかもしれませんが、今は固定値です。</t>
+    <rPh sb="41" eb="46">
+      <t>チュウシンシュウハスウ</t>
+    </rPh>
+    <rPh sb="75" eb="80">
+      <t>チュウシンシュウハスウ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R&amp;S Signal and spectrum analyzer(RS_FSx)のテンプレート「quicksave 6」を開きます。これを開くことでSAの解析設定がロードされます。</t>
+    <rPh sb="69" eb="70">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R&amp;S SG SMW200A(RS_SMx)の電力（I/P Power(dBm)）を1dBmごとに変更して、EVMが一回目の10%から2回目の10%に変化するようにします。低電力（たとえば-39dBmでEVMが1回目の10％付近）から高電力（たとえば-11dBmでEVMが2回目の10%付近）まで変化させます。EVMは電力に対して2次関数グラフのようになっていると思いますが、最初の低電力の10%（例だと-39dBm）がどの付近にあるか分からないので探索する必要があります。基準点が分かれば、そこから電力を上げていき次のEVM10%（例では-11dB付近）まで測定を行います。
+5G NR信号の場合はSAからのEVM(%)、CF(dB)、O/P Power(dBm)、ACLR Lower(dBc)、ACLR Upper(dBc)をI/P Power(dBm)ごとに記録します。信号がCWの場合は、SGとSAの電力I/P Power(dBm)とO/P Power(dBm)のみを記録します。</t>
+    <rPh sb="58" eb="61">
+      <t>イッカイメ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="166" eb="169">
+      <t>ジカンスウ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="237" eb="240">
+      <t>キジュンテン</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="280" eb="282">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4623,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87961E64-CC6B-4B52-9373-9579979FDF9C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="A11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4637,7 +4722,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4645,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4661,10 +4746,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4680,7 +4765,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5">
@@ -4688,7 +4773,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5">
@@ -4696,53 +4781,54 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="37.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="56.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="112.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="168.75">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4764,30 +4850,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4797,32 +4883,32 @@
     </row>
     <row r="4" spans="1:4" ht="56.25">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.5">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4830,369 +4916,369 @@
       <c r="B8" s="10"/>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="37.5">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="37.5">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="10"/>
       <c r="D29" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="37.5">
       <c r="A30" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="37.5">
       <c r="A37" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="D38" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.5">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5"/>
       <c r="D40" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="37.5">
       <c r="A43" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="22.5">
       <c r="A45" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5"/>
       <c r="D46" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" ht="22.5">
       <c r="A48" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5200,10 +5286,10 @@
     </row>
     <row r="50" spans="1:4" ht="56.25">
       <c r="A50" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5212,35 +5298,35 @@
     </row>
     <row r="52" spans="1:4" ht="37.5">
       <c r="A52" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="D53" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="D54" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="D55" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="D56" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5248,7 +5334,7 @@
     </row>
     <row r="59" spans="1:4" ht="22.5">
       <c r="D59" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5256,12 +5342,12 @@
     </row>
     <row r="61" spans="1:4" ht="37.5">
       <c r="D61" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="37.5">
       <c r="D62" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5286,26 +5372,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.5">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6239,21 +6325,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/My_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCE0199-19B7-4DFD-A086-E9CABD24FE5A}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE0DFB3-D1D0-4F06-A073-CBFCD6967158}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1995" yWindow="3075" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
     <sheet name="Python Script Image" sheetId="2" r:id="rId2"/>
     <sheet name="SCPI" sheetId="5" r:id="rId3"/>
     <sheet name="Debug" sheetId="6" r:id="rId4"/>
-    <sheet name="TM3.1_100M_64QAM" sheetId="1" r:id="rId5"/>
-    <sheet name="Python Script" sheetId="4" r:id="rId6"/>
+    <sheet name="Python Script" sheetId="4" r:id="rId5"/>
+    <sheet name="Parameter" sheetId="7" r:id="rId6"/>
+    <sheet name="TM3.1_100M_64QAM" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
   <si>
     <t>I/P Power(dBm)</t>
     <phoneticPr fontId="1"/>
@@ -148,24 +149,6 @@
     <rPh sb="11" eb="14">
       <t>マイカイオナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「TightVNC Viewer」を開きます。IPアドレスは「172.22.0.51」で、パスワードは894129です。するとR&amp;S Signal and spectrum analyzerに接続します</t>
-    <rPh sb="18" eb="19">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Webブラウザ「172.22.2.35」でKeysight E8257D PSGアナログ信号発生器を開き、周波数を「122.8 MHz」、振幅を「-20 dBm」に設定します</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Webブラウザ「172.22.2.31」で R&amp;S SMW200Aを開きます。パスワードは「instrum」です。周波数を「5.16144 GHz」に設定し、RF を「ON」に設定します。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2297,6 +2280,68 @@
     <rPh sb="283" eb="284">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webブラウザ「172.22.2.31」でKeysight E8257D PSGアナログ信号発生器を開き、周波数を「122.8 MHz」、振幅を「-20 dBm」に設定します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webブラウザ「172.22.2.23」で R&amp;S SMW200Aを開きます。パスワードは「instrum」です。周波数を「5.16144 GHz」に設定し、RF を「ON」に設定します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TightVNC Viewer」を開きます。IPアドレスは「172.22.0.70」で、パスワードは894129です。するとR&amp;S Signal and spectrum analyzerに接続します</t>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Center Freq(GHz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bandwidth(MHz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QPSK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64QAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256QAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16QAM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4105,10 +4150,10 @@
       <xdr:rowOff>192820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1775115</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>320386</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4123,8 +4168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962528" y="435275"/>
-          <a:ext cx="5922201" cy="2283679"/>
+          <a:off x="6965775" y="430945"/>
+          <a:ext cx="8321850" cy="3569555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4309,11 +4354,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>	</a:t>
+            <a:t>	├── </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> └── </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -4323,7 +4368,14 @@
             <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>インストゥルメントのライブラリディレクトリ</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>	└── </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4692,7 +4744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F608118-D150-4913-A31B-7A8C34E4B310}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AF12" sqref="U1:AF12"/>
     </sheetView>
   </sheetViews>
@@ -4708,8 +4760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87961E64-CC6B-4B52-9373-9579979FDF9C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:B13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4722,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4746,10 +4798,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4765,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5">
@@ -4773,7 +4825,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5">
@@ -4781,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4794,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.5">
@@ -4802,7 +4854,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="168.75">
@@ -4810,7 +4862,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -4818,10 +4870,10 @@
     </row>
     <row r="14" spans="1:3" ht="75">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80459F80-B9C3-40C0-9C36-FBFDC6967EF7}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4850,30 +4902,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4883,32 +4935,32 @@
     </row>
     <row r="4" spans="1:4" ht="56.25">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.5">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4916,369 +4968,369 @@
       <c r="B8" s="10"/>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="37.5">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="37.5">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5">
       <c r="A21" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="10"/>
       <c r="D29" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="37.5">
       <c r="A30" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="37.5">
       <c r="A37" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="D38" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.5">
       <c r="A39" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5"/>
       <c r="D40" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="37.5">
       <c r="A43" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="22.5">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5"/>
       <c r="D46" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" ht="22.5">
       <c r="A48" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5286,10 +5338,10 @@
     </row>
     <row r="50" spans="1:4" ht="56.25">
       <c r="A50" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5298,35 +5350,35 @@
     </row>
     <row r="52" spans="1:4" ht="37.5">
       <c r="A52" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="D53" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="D54" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="D55" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="D56" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5334,7 +5386,7 @@
     </row>
     <row r="59" spans="1:4" ht="22.5">
       <c r="D59" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5342,12 +5394,12 @@
     </row>
     <row r="61" spans="1:4" ht="37.5">
       <c r="D61" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="37.5">
       <c r="D62" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5372,26 +5424,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.5">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5404,14 +5456,131 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308CDF-F9EC-40ED-BEA5-E54196751FF4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.375" customWidth="1"/>
+    <col min="3" max="3" width="122.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9730ED-C619-47A9-A1BD-59AB58411CFB}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>28.017119999999998</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7777030C-2CEB-432A-B882-E069E7518F60}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="18.75"/>
@@ -6304,46 +6473,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308CDF-F9EC-40ED-BEA5-E54196751FF4}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.375" customWidth="1"/>
-    <col min="3" max="3" width="122.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/My_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE0DFB3-D1D0-4F06-A073-CBFCD6967158}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6A7212-A503-44F2-AF8D-891EFF949BF1}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
   <si>
     <t>I/P Power(dBm)</t>
     <phoneticPr fontId="1"/>
@@ -2301,34 +2301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Direction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Modulation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Center Freq(GHz)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bandwidth(MHz)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Any</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>QPSK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2342,6 +2314,54 @@
   </si>
   <si>
     <t>16QAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direction:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Center Freq(GHz):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bandwidth(MHz):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modulation:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uplink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Downlink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_power_range(dBm):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strat:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>step:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evm_threshold(dBm):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path_loss(dBm):</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4027,8 +4047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7024687" y="0"/>
-          <a:ext cx="6778625" cy="5083968"/>
+          <a:off x="6998229" y="0"/>
+          <a:ext cx="6754812" cy="5195093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4042,13 +4062,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485180</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4077,8 +4097,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1001614" y="6347519"/>
-          <a:ext cx="8012907" cy="6009680"/>
+          <a:off x="-1102155" y="6564478"/>
+          <a:ext cx="8192823" cy="5988513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4089,14 +4109,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>147040</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549207</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>107161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>650079</xdr:colOff>
+      <xdr:colOff>364329</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>47629</xdr:rowOff>
     </xdr:to>
@@ -4127,8 +4147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5357514" y="6350500"/>
-          <a:ext cx="8036718" cy="6027539"/>
+          <a:off x="4947409" y="6567459"/>
+          <a:ext cx="8216634" cy="6006372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4145,15 +4165,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95869</xdr:colOff>
+      <xdr:colOff>4001119</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>192820</xdr:rowOff>
+      <xdr:rowOff>2320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4168,7 +4188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6965775" y="430945"/>
+          <a:off x="10871025" y="240445"/>
           <a:ext cx="8321850" cy="3569555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4744,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F608118-D150-4913-A31B-7A8C34E4B310}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF12" sqref="U1:AF12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4761,7 +4781,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5413,7 +5433,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5497,14 +5517,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9730ED-C619-47A9-A1BD-59AB58411CFB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
@@ -5513,57 +5534,97 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B2">
         <v>28.017119999999998</v>
       </c>
       <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
+        <v>29.12304</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>155</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="D4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="D5" t="s">
-        <v>158</v>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10">
+        <v>-56.905000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5576,11 +5637,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7777030C-2CEB-432A-B882-E069E7518F60}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="18.75"/>

--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/My_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6A7212-A503-44F2-AF8D-891EFF949BF1}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704F4080-CEDC-4808-9884-634E42C9B3C0}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView minimized="1" xWindow="2220" yWindow="2130" windowWidth="15375" windowHeight="7995" activeTab="2" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
@@ -172,32 +172,6 @@
     </rPh>
     <rPh sb="144" eb="146">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「TightVNC Viewer」を開きます。IP アドレスは「172.22.2.12」で、NGP800 Power supplyにアクセスし「Ch 1」を選択して「output」をクリックします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意の電流、電圧値に設定。正しく動作していればクリア。</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>デンリュウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>デンアツチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2362,6 +2336,42 @@
   </si>
   <si>
     <t>path_loss(dBm):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TightVNC Viewer」（C:\Program Files\TightVNC\tvnviewer.exe）を開きます。IP アドレスは「172.22.2.12」で、NGP800 Power supplyにアクセスし「Ch 1」を選択して「output」をクリックします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意の電流、電圧値に設定。正しく動作していればクリア。
+VNCはGUI操作向きなのでPython Scriptに適さない。SCPIで直接操作する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンリュウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>デンアツチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ソウサム</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>チョクセツソウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3960,15 +3970,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579439</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82022</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>207697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3997,8 +4007,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="0"/>
-          <a:ext cx="6746877" cy="5060156"/>
+          <a:off x="238125" y="148166"/>
+          <a:ext cx="6723064" cy="5171281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4010,15 +4020,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:colOff>246062</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>682624</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121708</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:rowOff>231510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4047,7 +4057,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6998229" y="0"/>
+          <a:off x="7125229" y="148167"/>
           <a:ext cx="6754812" cy="5195093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4164,16 +4174,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4001119</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83963</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2320</xdr:rowOff>
+      <xdr:rowOff>38038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>511968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4188,8 +4198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10871025" y="240445"/>
-          <a:ext cx="8321850" cy="3569555"/>
+          <a:off x="11192494" y="276163"/>
+          <a:ext cx="8321850" cy="3807680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4764,9 +4774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F608118-D150-4913-A31B-7A8C34E4B310}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -4781,7 +4789,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4794,7 +4802,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4813,15 +4821,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37.5">
+    <row r="4" spans="1:3" ht="56.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
+        <v>163</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4837,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5">
@@ -4845,7 +4853,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5">
@@ -4853,7 +4861,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4866,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.5">
@@ -4874,7 +4882,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="168.75">
@@ -4882,7 +4890,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -4908,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80459F80-B9C3-40C0-9C36-FBFDC6967EF7}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4922,30 +4930,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4955,32 +4963,32 @@
     </row>
     <row r="4" spans="1:4" ht="56.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.5">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4988,369 +4996,369 @@
       <c r="B8" s="10"/>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="37.5">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="37.5">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5">
       <c r="A21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="10"/>
       <c r="D29" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="37.5">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="37.5">
       <c r="A37" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="D38" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.5">
       <c r="A39" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5"/>
       <c r="D40" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="37.5">
       <c r="A43" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="22.5">
       <c r="A45" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5"/>
       <c r="D46" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" ht="22.5">
       <c r="A48" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5358,10 +5366,10 @@
     </row>
     <row r="50" spans="1:4" ht="56.25">
       <c r="A50" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5370,35 +5378,35 @@
     </row>
     <row r="52" spans="1:4" ht="37.5">
       <c r="A52" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="D53" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="D54" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="D55" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="D56" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5406,7 +5414,7 @@
     </row>
     <row r="59" spans="1:4" ht="22.5">
       <c r="D59" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5414,12 +5422,12 @@
     </row>
     <row r="61" spans="1:4" ht="37.5">
       <c r="D61" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="37.5">
       <c r="D62" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5444,26 +5452,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.5">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5534,18 +5542,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>28.017119999999998</v>
@@ -5556,7 +5564,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -5567,29 +5575,29 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>-40</v>
@@ -5597,7 +5605,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>-5</v>
@@ -5605,7 +5613,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5613,7 +5621,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -5621,7 +5629,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10">
         <v>-56.905000000000001</v>
@@ -5637,7 +5645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7777030C-2CEB-432A-B882-E069E7518F60}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/My_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704F4080-CEDC-4808-9884-634E42C9B3C0}"/>
+  <xr:revisionPtr revIDLastSave="768" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9A5D4D-D20F-4B2A-A6D3-D91F20FD4899}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2220" yWindow="2130" windowWidth="15375" windowHeight="7995" activeTab="2" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="10" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
-    <sheet name="Python Script Image" sheetId="2" r:id="rId2"/>
-    <sheet name="SCPI" sheetId="5" r:id="rId3"/>
-    <sheet name="Debug" sheetId="6" r:id="rId4"/>
-    <sheet name="Python Script" sheetId="4" r:id="rId5"/>
-    <sheet name="Parameter" sheetId="7" r:id="rId6"/>
-    <sheet name="TM3.1_100M_64QAM" sheetId="1" r:id="rId7"/>
+    <sheet name="image" sheetId="2" r:id="rId2"/>
+    <sheet name="Step1" sheetId="4" r:id="rId3"/>
+    <sheet name="Step2" sheetId="8" r:id="rId4"/>
+    <sheet name="Step3" sheetId="9" r:id="rId5"/>
+    <sheet name="Step4" sheetId="10" r:id="rId6"/>
+    <sheet name="Step5" sheetId="11" r:id="rId7"/>
+    <sheet name="Step6" sheetId="12" r:id="rId8"/>
+    <sheet name="Step7" sheetId="13" r:id="rId9"/>
+    <sheet name="SCPI" sheetId="5" r:id="rId10"/>
+    <sheet name="Debug" sheetId="6" r:id="rId11"/>
+    <sheet name="Parameter" sheetId="7" r:id="rId12"/>
+    <sheet name="TM3.1_100M_64QAM" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="305">
   <si>
     <t>I/P Power(dBm)</t>
     <phoneticPr fontId="1"/>
@@ -109,36 +115,6 @@
   </si>
   <si>
     <t>Cato クライアントと TightVNC をPC に接続します (172.22.0.12、パスワード 1234)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Step1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>connect_cato_client関数は、Cato Clientに接続するためのシェルコマンドを実行します。接続に失敗した場合、エラーメッセージが表示され、Falseを返します。
-Cato Clientへの接続が成功した場合、10秒（必要に応じて調整可能）待機します。
-その後、指定されたIPアドレスとパスワードを使用してTightVNCサーバーに接続し、TightVNC Viewerを起動します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリプトの流れ</t>
-    <rPh sb="6" eb="7">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用方法</t>
-    <rPh sb="0" eb="4">
-      <t>シヨウホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tvnviewer.exeのパスをシステムに合わせて調整してください。
-vnc_server_ipとvnc_passwordを実際のVNCサーバーのIPアドレス（172.22.0.12）とパスワード（1234）に置き換えてください。
-Cato Client接続コマンド（cato-client connect --profile your-profile-name）は、使用しているCato Clientの設定に合わせて変更してください。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2261,10 +2237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Webブラウザ「172.22.2.23」で R&amp;S SMW200Aを開きます。パスワードは「instrum」です。周波数を「5.16144 GHz」に設定し、RF を「ON」に設定します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「TightVNC Viewer」を開きます。IPアドレスは「172.22.0.70」で、パスワードは894129です。するとR&amp;S Signal and spectrum analyzerに接続します</t>
     <rPh sb="18" eb="19">
       <t>ヒラ</t>
@@ -2343,8 +2315,1762 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <t>port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: SSHポート（デフォルトは22）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jump_server_ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ジャンプサーバーのIPアドレス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jump_server_username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ジャンプサーバーのSSHユーザー名。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>target_ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ターゲットサーバーのIPアドレス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>target_username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ターゲットサーバーのSSHユーザー名。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. バッチファイルの存在確認:</t>
+  </si>
+  <si>
+    <t>4. エラーハンドリング:</t>
+  </si>
+  <si>
+    <t>このコードは、NGP800電源供給装置にSCPIコマンドを送信して制御を行い、いくつかの状態情報を取得するものです。以下はその主要な処理の流れと説明です：</t>
+  </si>
+  <si>
+    <t>1. NGP800への接続:</t>
+  </si>
+  <si>
+    <r>
+      <t>RS_NGPx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クラスを用いてNGP800電源装置に接続します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ip_address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引数を使って接続先のIPアドレスを指定します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接続後、装置の情報を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>power_supply.identification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で取得してログに出力します。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. チャネル1の出力を有効にする:</t>
+  </si>
+  <si>
+    <r>
+      <t>toggle_channel_output_state(1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でチャネル1の出力を有効化します。第1引数はチャネル番号、第二引数は出力を有効にするための</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 3秒の待機:</t>
+  </si>
+  <si>
+    <t>出力が有効になった後、3秒間待機します。これは、装置が出力を開始してから状態を確認するための時間を確保するためです。</t>
+  </si>
+  <si>
+    <t>4. NGP800の各種状態情報を取得:</t>
+  </si>
+  <si>
+    <r>
+      <t>get_opp_level(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：チャネル1の過負荷保護（OPP）レベルを取得。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>get_upper_voltage_limit(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：チャネル1の上限電圧を取得。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>get_upper_current_limit(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：チャネル1の上限電流を取得。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>get_channel_output_state(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：チャネル1の出力状態を取得。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>get_master_output_state()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：全体の出力状態を取得。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>get_limit_state()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：現在の安全制限状態を取得。最終的に表示されます。</t>
+    </r>
+  </si>
+  <si>
+    <t>5. エラーハンドリング:</t>
+  </si>
+  <si>
+    <t>接続やコマンド実行中にエラーが発生した場合、ログにエラーメッセージを記録し、例外を再スローします。</t>
+  </si>
+  <si>
+    <t>6. ログ設定:</t>
+  </si>
+  <si>
+    <r>
+      <t>logging.basicConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を用いて、ログのフォーマットとレベル（INFO）を設定しています。</t>
+    </r>
+  </si>
+  <si>
+    <t>7. メイン処理:</t>
+  </si>
+  <si>
+    <r>
+      <t>スクリプトの実行部分で、環境変数からNGP800のIPアドレスを取得し（指定されていない場合はデフォルト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>'172.22.2.12'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>control_ngp800()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>関数を呼び出して制御を行います。</t>
+    </r>
+  </si>
+  <si>
+    <t>このコードの目的は、NGP800の各種状態情報を取得し、ログに出力することです。最終的に、過負荷保護、電圧制限、電流制限、出力状態、安全制限状態などの情報を表示します。</t>
+  </si>
+  <si>
+    <t>このコードは、指定されたPAAMバッチスクリプトを実行するための処理です。スクリプトのパスが有効かどうかを確認し、その後、バッチスクリプトを実行します。コードの主要な部分を説明します。</t>
+  </si>
+  <si>
+    <t>1. ディレクトリとファイルの検証:</t>
+  </si>
+  <si>
+    <r>
+      <t>script_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引数で指定されたバッチスクリプトのディレクトリを取得し、存在するか確認します。</t>
+    </r>
+  </si>
+  <si>
+    <t>ディレクトリが存在しない場合やファイルが見つからない場合には、エラーメッセージを表示し、プログラムを終了します。</t>
+  </si>
+  <si>
+    <r>
+      <t>os.path.isfile(script_path)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、指定されたファイルが存在するか確認します。</t>
+    </r>
+  </si>
+  <si>
+    <t>ファイルが見つからない場合、エラーメッセージを表示してプログラムを終了します。</t>
+  </si>
+  <si>
+    <t>3. PAAMスクリプトの実行:</t>
+  </si>
+  <si>
+    <r>
+      <t>subprocess.run([script_path], shell=True, check=True)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使って、PAAMバッチスクリプトを実行します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shell=True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は、コマンドをシェル経由で実行することを指定します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>check=True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は、実行中にエラーが発生した場合に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>subprocess.CalledProcessError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を投げ、エラーハンドリングを行うための設定です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>subprocess.CalledProcessError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が発生した場合、スクリプトの実行エラーとしてキャッチし、エラーメッセージをログに出力してプログラムを終了します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>その他の予期しないエラーは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でキャッチし、エラーメッセージを表示してプログラムを終了します。</t>
+    </r>
+  </si>
+  <si>
+    <t>5. ログ設定:</t>
+  </si>
+  <si>
+    <r>
+      <t>logging.info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用して、情報をログとして記録します。ログにはディレクトリの存在確認、スクリプトの実行、エラー内容などが記録されます。</t>
+    </r>
+  </si>
+  <si>
+    <t>6. プログラムの終了:</t>
+  </si>
+  <si>
+    <r>
+      <t>エラーが発生した場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sys.exit(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でプログラムを終了します。これにより、スクリプトの実行が失敗した場合には、後続の処理が行われません。</t>
+    </r>
+  </si>
+  <si>
+    <t>このコードは、指定されたPAAMスクリプトが存在し実行可能であることを確認した後、バッチスクリプトを実行する役割を果たします。また、スクリプトの実行中に発生する可能性のあるエラーに適切に対応します。</t>
+  </si>
+  <si>
+    <t>4o mini</t>
+  </si>
+  <si>
+    <t>このコードは、Keysight PSG（信号発生器）を設定して、指定された周波数と振幅で出力を有効にし、その後、現在の出力パワーを取得する処理を行います。以下に、コードの説明を行います。</t>
+  </si>
+  <si>
+    <t>1. Keysight PSGへの接続:</t>
+  </si>
+  <si>
+    <r>
+      <t>sig_gen = KS_PSG(ip_address=ip)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用して、指定されたIPアドレスでKeysight PSGに接続します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sig_gen.connect()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で接続を確立し、接続に成功した場合には、デバイス情報を表示します。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 周波数の設定:</t>
+  </si>
+  <si>
+    <r>
+      <t>target_frequency = 122.8e6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でターゲットの周波数を122.8 MHzに設定します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sig_gen.set_freq(target_frequency)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で信号発生器に周波数を設定し、その後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sig_gen.get_freq()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で実際に設定された周波数を取得して表示します。</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 振幅の設定:</t>
+  </si>
+  <si>
+    <r>
+      <t>target_amplitude = -20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でターゲットの振幅を-20 dBmに設定します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sig_gen.set_amplitude(target_amplitude)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で信号発生器の振幅を設定し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sig_gen.get_amplitude()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で設定された振幅を確認して表示します。</t>
+    </r>
+  </si>
+  <si>
+    <t>4. RF出力の有効化:</t>
+  </si>
+  <si>
+    <r>
+      <t>sig_gen.rf_switch('ON')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用してRF出力をオンにします。</t>
+    </r>
+  </si>
+  <si>
+    <t>RF出力の有効化が成功すると、その旨を表示します。</t>
+  </si>
+  <si>
+    <t>5. 1秒待機:</t>
+  </si>
+  <si>
+    <r>
+      <t>sleep(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で1秒待機し、その後、出力パワーを取得する準備をします。</t>
+    </r>
+  </si>
+  <si>
+    <t>6. 現在の出力パワーの取得:</t>
+  </si>
+  <si>
+    <r>
+      <t>current_power = sig_gen.get_power()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で現在の出力パワー（dBm単位）を取得し、表示します。</t>
+    </r>
+  </si>
+  <si>
+    <t>7. エラーハンドリング:</t>
+  </si>
+  <si>
+    <r>
+      <t>すべての処理は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ブロック内で行われ、エラーが発生した場合には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ブロックでエラーメッセージが表示されます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>raise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>によって例外が再スローされ、上位の処理に通知されます。</t>
+    </r>
+  </si>
+  <si>
+    <t>このコードは、Keysight PSG信号発生器の設定と状態確認を行うために、SCPIコマンドを使って操作を自動化するものです。信号の周波数、振幅を設定し、RF出力を有効にした後に、現在の出力パワーを取得して、最終的な設定状態を確認します。</t>
+  </si>
+  <si>
+    <t>このコードは、指定されたバッチファイルを実行する処理を行います。コードの流れと各部分について説明します。</t>
+  </si>
+  <si>
+    <t>1. バッチファイルのディレクトリを確認:</t>
+  </si>
+  <si>
+    <r>
+      <t>batch_dir = os.path.dirname(os.path.abspath(script_path))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、指定されたバッチファイルの絶対パスを取得し、そのディレクトリパスを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>batch_dir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に保存します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logging.info(f"Checking directory: {batch_dir}")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、そのディレクトリパスをログに記録します。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. ディレクトリの存在確認:</t>
+  </si>
+  <si>
+    <r>
+      <t>if os.path.exists(batch_dir) and os.path.isdir(batch_dir):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、ディレクトリが実際に存在するかを確認します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>存在しない場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logging.error(f"Directory {batch_dir} not found. Exiting program.")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でエラーメッセージをログに記録し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sys.exit(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でプログラムを終了します。</t>
+    </r>
+  </si>
+  <si>
+    <t>3. バッチファイルの存在確認:</t>
+  </si>
+  <si>
+    <r>
+      <t>if os.path.isfile(script_path):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、指定されたバッチファイルが存在するかを確認します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>存在しない場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logging.error(f"Batch script not found: {script_path}. Exiting program.")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でエラーメッセージをログに記録し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sys.exit(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でプログラムを終了します。</t>
+    </r>
+  </si>
+  <si>
+    <t>4. バッチファイルの実行:</t>
+  </si>
+  <si>
+    <r>
+      <t>os.system(script_path)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用して、指定されたバッチファイルを実行します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>os.system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はコマンドラインで指定されたコマンドを実行するための簡単な方法ですが、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>subprocess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モジュールを使用することでより柔軟な制御も可能です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>実行する際のログは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logging.info(f"Executing batch script: {script_path}")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で記録します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ブロック内で実行される処理中にエラーが発生した場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ブロックでエラーメッセージを記録し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sys.exit(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でプログラムを終了します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>エラーが発生した場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logging.error(f"An unexpected error occurred: {e}")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でエラーメッセージを表示します。</t>
+    </r>
+  </si>
+  <si>
+    <t>このコードは、バッチファイルが指定されたパスに存在し、そのディレクトリが正しいことを確認してから実行する仕組みです。もし条件を満たさない場合は、エラーメッセージを表示してプログラムを終了します。</t>
+  </si>
+  <si>
+    <t>このコードは、SSH接続を使用してCatoクライアントまたはターゲットサーバーへの接続を行うための関数を定義しています。接続は、通常の接続またはジャンプサーバー経由で行うことができます。以下で各部分の説明を行います。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>connect_to_cato_client</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>関数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: CatoクライアントにSSH接続します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>引数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: CatoクライアントのIPアドレス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: SSHのユーザー名。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 接続試行回数（デフォルトは3回）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 接続のタイムアウト時間（デフォルトは10秒）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>key_filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: SSHキーのファイルパス（オプション）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接続の流れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>paramiko.SSHClient()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用してSSH接続を作成。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>set_missing_host_key_policy(paramiko.AutoAddPolicy())</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で接続先ホストキーを自動的に追加（ホストが初めての場合）。</t>
+    </r>
+  </si>
+  <si>
+    <t>SSHキー認証またはパスワード認証を使用して接続します。</t>
+  </si>
+  <si>
+    <r>
+      <t>接続に成功した場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>exec_command('cd')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で現在のディレクトリを確認し、SSH接続が正常に確立されたかをログに記録します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>エラーハンドリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>認証エラーや接続エラーが発生した場合、それをログに記録し、リトライの回数を減らしながら再試行します。</t>
+  </si>
+  <si>
+    <t>それでも接続できない場合は例外を発生させてプログラムを終了します。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>connect_through_jump_server</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>関数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ジャンプサーバーを介してターゲットサーバーに接続します。</t>
+    </r>
+  </si>
+  <si>
+    <t>最初にジャンプサーバーにSSH接続。</t>
+  </si>
+  <si>
+    <t>ジャンプサーバーを介してターゲットサーバーへのSSHトンネルを作成。</t>
+  </si>
+  <si>
+    <r>
+      <t>トンネルを使用してターゲットサーバーに接続し、指定されたコマンド（ここでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>cd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を実行してターゲットサーバーの現在のディレクトリを確認します。</t>
+    </r>
+  </si>
+  <si>
+    <t>認証エラーや接続エラーが発生した場合、それをログに記録し、接続失敗時にはプログラムを終了します。</t>
+  </si>
+  <si>
+    <t>3. SSH接続の管理</t>
+  </si>
+  <si>
+    <r>
+      <t>paramiko.SSHClient()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SSH接続を管理するための</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SSHClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>オブジェクトを使用します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>paramiko.AutoAddPolicy()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>最初の接続時にホストキーを自動的に受け入れるポリシーです（通常は接続先のホストが未知の場合に使用）。</t>
+  </si>
+  <si>
+    <r>
+      <t>接続後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>exec_command()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用してリモートコマンド（ここでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>cd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）を実行し、接続が正常に確立されたか確認します。</t>
+    </r>
+  </si>
+  <si>
+    <t>4. 接続試行とリトライ機能</t>
+  </si>
+  <si>
+    <r>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を指定することで、接続失敗時に指定した回数だけ再試行します。</t>
+    </r>
+  </si>
+  <si>
+    <t>接続失敗時に2秒の待機時間を設けて再試行し、最終的に接続に失敗した場合は例外を発生させます。</t>
+  </si>
+  <si>
+    <t>5. ログ出力</t>
+  </si>
+  <si>
+    <r>
+      <t>進行状況やエラーはすべて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モジュールを使って記録されます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logging.info()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で正常なログメッセージを、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logging.error()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でエラーメッセージを記録します。</t>
+    </r>
+  </si>
+  <si>
+    <t>まとめ</t>
+  </si>
+  <si>
+    <t>このコードは、Catoクライアントやターゲットサーバーへの接続を安全に行うために、SSH接続を確立し、ジャンプサーバーを経由する場合もサポートしています。再試行機能とエラーハンドリングを備えており、接続のトラブルシューティングを容易にします。</t>
+  </si>
+  <si>
+    <t>Webブラウザ「172.22.2.23」で R&amp;S SMW200Aを開きます。パスワードは「instrument」です。周波数を「5.16144 GHz」に設定し、RF を「ON」に設定します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webブラウザは使用しない</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VNCはGUI操作なのでPython Scriptに適さない。SCPIで直接操作する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>任意の電流、電圧値に設定。正しく動作していればクリア。
-VNCはGUI操作向きなのでPython Scriptに適さない。SCPIで直接操作する。</t>
+VNCはGUI操作なのでPython Scriptに適さない。SCPIで直接操作する。</t>
     <rPh sb="0" eb="2">
       <t>ニンイ</t>
     </rPh>
@@ -2363,15 +4089,109 @@
     <rPh sb="16" eb="18">
       <t>ドウサ</t>
     </rPh>
-    <rPh sb="35" eb="38">
-      <t>ソウサム</t>
+    <rPh sb="35" eb="37">
+      <t>ソウサ</t>
     </rPh>
-    <rPh sb="56" eb="57">
+    <rPh sb="54" eb="55">
       <t>テキ</t>
     </rPh>
-    <rPh sb="66" eb="70">
+    <rPh sb="64" eb="68">
       <t>チョクセツソウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>San Diego PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.22.0.12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>labuser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.22.2.12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.22.2.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS_NGPx(RS_ngp800)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS_SMx(RS_signal_generator_smw200a)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.22.2.23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.22.0.70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instrument?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS_FSx(RS_spectrum_analyzer)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KS_PSG(Keysight_psg_E8257D)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Admimnistrator?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Instrument?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Instrument</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R&amp;S VISAを取得する必要がある。</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.rohde-schwarz.com/jp/applications/r-s-visa-application-note_56280-148812.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2502,7 +4322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2589,6 +4409,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3969,16 +5810,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>82022</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113772</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>207697</xdr:rowOff>
+      <xdr:rowOff>80697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4007,8 +5848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="148166"/>
-          <a:ext cx="6723064" cy="5171281"/>
+          <a:off x="6131832" y="21166"/>
+          <a:ext cx="6701897" cy="5088731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4019,16 +5860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>246062</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161396</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>121708</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>37042</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>231510</xdr:rowOff>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4057,7 +5898,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7125229" y="148167"/>
+          <a:off x="9792229" y="0"/>
           <a:ext cx="6754812" cy="5195093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4075,8 +5916,8 @@
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485180</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51263</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
@@ -4772,152 +6613,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F608118-D150-4913-A31B-7A8C34E4B310}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5">
+        <v>894129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87961E64-CC6B-4B52-9373-9579979FDF9C}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="56.25">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="37.5">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="56.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="37.5">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="168.75">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80459F80-B9C3-40C0-9C36-FBFDC6967EF7}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4930,30 +6730,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4963,32 +6763,32 @@
     </row>
     <row r="4" spans="1:4" ht="56.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.5">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4996,369 +6796,369 @@
       <c r="B8" s="10"/>
       <c r="C8" s="17"/>
       <c r="D8" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="37.5">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="37.5">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="37.5">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5">
       <c r="A18" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5">
       <c r="A21" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="22.5">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="56.25">
       <c r="A24" s="5"/>
       <c r="B24" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="22.5">
       <c r="A28" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="10"/>
       <c r="D29" s="24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="37.5">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="37.5">
       <c r="A37" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="D38" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.5">
       <c r="A39" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5"/>
       <c r="D40" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="37.5">
       <c r="A43" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44" s="24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="22.5">
       <c r="A45" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5"/>
       <c r="D46" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" ht="22.5">
       <c r="A48" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5366,10 +7166,10 @@
     </row>
     <row r="50" spans="1:4" ht="56.25">
       <c r="A50" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5378,35 +7178,35 @@
     </row>
     <row r="52" spans="1:4" ht="37.5">
       <c r="A52" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="D53" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="D54" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="D55" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="D56" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" s="22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5414,7 +7214,7 @@
     </row>
     <row r="59" spans="1:4" ht="22.5">
       <c r="D59" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5422,12 +7222,12 @@
     </row>
     <row r="61" spans="1:4" ht="37.5">
       <c r="D61" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="37.5">
       <c r="D62" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5436,12 +7236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E35367-EFB0-4D55-8E21-DFCC0224FB4E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5452,78 +7252,47 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37.5">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D09BD59F-5CBD-4F37-98DF-E7BA03FC68AC}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{F87E7240-CC60-45DF-AB66-124E3600CC6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308CDF-F9EC-40ED-BEA5-E54196751FF4}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.375" customWidth="1"/>
-    <col min="3" max="3" width="122.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9730ED-C619-47A9-A1BD-59AB58411CFB}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5542,18 +7311,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>28.017119999999998</v>
@@ -5564,7 +7333,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -5575,29 +7344,29 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>-40</v>
@@ -5605,7 +7374,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>-5</v>
@@ -5613,7 +7382,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5621,7 +7390,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -5629,7 +7398,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>-56.905000000000001</v>
@@ -5641,7 +7410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7777030C-2CEB-432A-B882-E069E7518F60}">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -6545,4 +8314,1014 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87961E64-CC6B-4B52-9373-9579979FDF9C}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="56.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="56.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="168.75">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308CDF-F9EC-40ED-BEA5-E54196751FF4}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:C61"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="4" spans="2:3" ht="22.5">
+      <c r="B4" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="22.5">
+      <c r="B23" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="22.5">
+      <c r="B39" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="22.5">
+      <c r="B48" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="30"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="22.5">
+      <c r="B53" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="30"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="22.5">
+      <c r="B58" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C9727-75A6-45E1-9248-899C5E841E9B}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:B31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="22.5">
+      <c r="B4" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="22.5">
+      <c r="B9" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="22.5">
+      <c r="B14" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="22.5">
+      <c r="B19" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="22.5">
+      <c r="B24" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5AFE6D-A900-43C8-BBFC-471180AD208C}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:B38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="22.5">
+      <c r="B4" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="22.5">
+      <c r="B9" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="22.5">
+      <c r="B13" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="22.5">
+      <c r="B17" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="22.5">
+      <c r="B26" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="30"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="22.5">
+      <c r="B30" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="22.5">
+      <c r="B34" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8211CAB-FAE0-41AA-8FA4-AB0285E10361}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:B34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="22.5">
+      <c r="B4" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="22.5">
+      <c r="B9" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="22.5">
+      <c r="B14" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="22.5">
+      <c r="B19" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="22.5">
+      <c r="B24" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="22.5">
+      <c r="B28" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="30"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542FB31-A441-46C2-AE02-508C3220317B}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:B39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="22.5">
+      <c r="B4" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="22.5">
+      <c r="B9" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="22.5">
+      <c r="B14" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="22.5">
+      <c r="B19" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="22.5">
+      <c r="B24" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="22.5">
+      <c r="B28" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="30"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="22.5">
+      <c r="B32" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="30"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77871216-77DE-45CD-B5BE-8A61FDD953DE}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD042D-F97E-4C30-B6CA-D2A0DE8CDDAD}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/My_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="768" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9A5D4D-D20F-4B2A-A6D3-D91F20FD4899}"/>
+  <xr:revisionPtr revIDLastSave="802" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E948F6C3-C711-44A6-80ED-ABF76A9D08D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="10" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
     <sheet name="image" sheetId="2" r:id="rId2"/>
-    <sheet name="Step1" sheetId="4" r:id="rId3"/>
-    <sheet name="Step2" sheetId="8" r:id="rId4"/>
-    <sheet name="Step3" sheetId="9" r:id="rId5"/>
-    <sheet name="Step4" sheetId="10" r:id="rId6"/>
-    <sheet name="Step5" sheetId="11" r:id="rId7"/>
-    <sheet name="Step6" sheetId="12" r:id="rId8"/>
-    <sheet name="Step7" sheetId="13" r:id="rId9"/>
-    <sheet name="SCPI" sheetId="5" r:id="rId10"/>
-    <sheet name="Debug" sheetId="6" r:id="rId11"/>
+    <sheet name="Debug" sheetId="6" r:id="rId3"/>
+    <sheet name="Step1" sheetId="4" r:id="rId4"/>
+    <sheet name="Step2" sheetId="8" r:id="rId5"/>
+    <sheet name="Step3" sheetId="9" r:id="rId6"/>
+    <sheet name="Step4" sheetId="10" r:id="rId7"/>
+    <sheet name="Step5" sheetId="11" r:id="rId8"/>
+    <sheet name="Step6" sheetId="12" r:id="rId9"/>
+    <sheet name="Step7" sheetId="13" r:id="rId10"/>
+    <sheet name="SCPI" sheetId="5" r:id="rId11"/>
     <sheet name="Parameter" sheetId="7" r:id="rId12"/>
     <sheet name="TM3.1_100M_64QAM" sheetId="1" r:id="rId13"/>
   </sheets>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="310">
   <si>
     <t>I/P Power(dBm)</t>
     <phoneticPr fontId="1"/>
@@ -4157,14 +4157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>instrument?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RS_FSx(RS_spectrum_analyzer)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KS_PSG(Keysight_psg_E8257D)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4192,6 +4184,110 @@
   </si>
   <si>
     <t>https://www.rohde-schwarz.com/jp/applications/r-s-visa-application-note_56280-148812.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.keysight.com/jp/ja/lib/software-detail/computer-software/io-libraries-suite-downloads-2175637.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VISAライブラリがデフォルトだとvisa32.dllを選択するようになっている可能性あり。64ビット環境で動かす場合はvisa64.dllを選択するように修正すること。
+</t>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set PYVISA_LIBRARY=C:\Windows\System32\visa64.dll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kysight VISAを取得する必要がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS_FSx(RS_spectrum_analyzer_FSW50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NGP800に接続できない問題
+★telnet は接続できない。
+telnet 172.22.2.12 5025
+★Macアドレスは読み取れる。
+labuser@K0362 C:\Users\labuser&gt;arp -a 172.22.2.12
+Interface: 172.22.0.12 --- 0x5
+  Internet Address      Physical Address      Type
+  172.22.2.12           00-90-b8-27-95-8f     dynamic
+★netstatは何も返ってこない
+netstat -an | findstr 5025
+★tracertは帰ってくる。
+labuser@K0362 C:\Users\labuser&gt;tracert 172.22.2.12
+Tracing route to 172.22.2.12 over a maximum of 30 hops
+  1     1 ms     1 ms     1 ms  172.22.2.12
+Trace complete.
+★nslookup
+labuser@K0362 C:\Users\labuser&gt;nslookup 172.22.2.12
+Server:  KWICDC1.kii.kyosys.com
+Address:  172.22.8.10
+*** KWICDC1.kii.kyosys.com can't find 172.22.2.12: Non-existent domain
+labuser@K0362 C:\Users\labuser&gt;nslookup your_device_name
+Server:  KWICDC1.kii.kyosys.com
+Address:  172.22.8.10
+</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="313" eb="314">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートがデフォルト5025ではない？？？
+SSHアクティブかどうかの確認処理追加</t>
+    <rPh sb="34" eb="38">
+      <t>カクニンショリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6616,7 +6712,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6649,18 +6745,18 @@
         <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6671,21 +6767,21 @@
         <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" t="s">
-        <v>297</v>
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>894129</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D5">
         <v>894129</v>
@@ -6713,11 +6809,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD042D-F97E-4C30-B6CA-D2A0DE8CDDAD}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80459F80-B9C3-40C0-9C36-FBFDC6967EF7}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7232,62 +7346,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E35367-EFB0-4D55-8E21-DFCC0224FB4E}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="72" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="37.5">
-      <c r="A2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D09BD59F-5CBD-4F37-98DF-E7BA03FC68AC}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{F87E7240-CC60-45DF-AB66-124E3600CC6C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8324,7 +8382,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8457,6 +8515,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E35367-EFB0-4D55-8E21-DFCC0224FB4E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5">
+      <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="56.25">
+      <c r="A6" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.5">
+      <c r="A7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D09BD59F-5CBD-4F37-98DF-E7BA03FC68AC}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F87E7240-CC60-45DF-AB66-124E3600CC6C}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{7B2DD228-F473-4E9E-ABF8-6C1FF7935812}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308CDF-F9EC-40ED-BEA5-E54196751FF4}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -8734,7 +8873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C9727-75A6-45E1-9248-899C5E841E9B}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -8858,7 +8997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5AFE6D-A900-43C8-BBFC-471180AD208C}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -9008,7 +9147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8211CAB-FAE0-41AA-8FA4-AB0285E10361}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -9140,7 +9279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3542FB31-A441-46C2-AE02-508C3220317B}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -9290,7 +9429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77871216-77DE-45CD-B5BE-8A61FDD953DE}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -9306,22 +9445,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD042D-F97E-4C30-B6CA-D2A0DE8CDDAD}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="802" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E948F6C3-C711-44A6-80ED-ABF76A9D08D3}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView minimized="1" xWindow="2235" yWindow="2145" windowWidth="15375" windowHeight="7995" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="TM3.1_100M_64QAM" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4295,7 +4296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4368,6 +4369,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4418,7 +4428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4526,6 +4536,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6392,6 +6405,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6711,8 +6728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F608118-D150-4913-A31B-7A8C34E4B310}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6830,8 +6847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80459F80-B9C3-40C0-9C36-FBFDC6967EF7}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8382,7 +8399,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8518,8 +8535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E35367-EFB0-4D55-8E21-DFCC0224FB4E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8564,7 +8581,7 @@
       <c r="A5" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="36" t="s">
         <v>303</v>
       </c>
     </row>

--- a/PAAM_only_test&Automation_System.xlsx
+++ b/PAAM_only_test&Automation_System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp.sharepoint.com/sites/KWIC444/Shared Documents/General/01_無線ネットワーク第1開発部/ハードウェア開発部/第２&amp;３開発課/90_個人作業フォルダ/Ammen/出張/PythonScript_SanDiego/My_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="802" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E948F6C3-C711-44A6-80ED-ABF76A9D08D3}"/>
+  <xr:revisionPtr revIDLastSave="804" documentId="13_ncr:1_{739324AC-47EF-43D1-896B-D8F535975A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6657AE6E-9F94-437E-96EE-BAB2A05608CB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2235" yWindow="2145" windowWidth="15375" windowHeight="7995" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7AFD17A2-E23C-4F9C-BACB-A8F6509D4A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Env" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <sheet name="TM3.1_100M_64QAM" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5957,8 +5956,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6131832" y="21166"/>
-          <a:ext cx="6701897" cy="5088731"/>
+          <a:off x="6207125" y="21166"/>
+          <a:ext cx="6723064" cy="5171281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6405,10 +6404,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
